--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/15/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.29709999999999</v>
+        <v>-12.20429999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.39209999999999</v>
+        <v>-21.44649999999998</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3395</v>
+        <v>-10.2711</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.6948</v>
+        <v>-13.13960000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.24210000000001</v>
+        <v>-22.23110000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.49089999999998</v>
+        <v>-21.42369999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.1806</v>
+        <v>-12.0717</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.01679999999999</v>
+        <v>-12.7854</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.72160000000001</v>
+        <v>-12.64200000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.93869999999999</v>
+        <v>-21.90829999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.09790000000001</v>
+        <v>-12.19720000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.63399999999997</v>
+        <v>-21.56679999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.34300000000001</v>
+        <v>-12.57440000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.8079</v>
+        <v>-11.68639999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.904</v>
+        <v>-13.59109999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9722</v>
+        <v>-10.7517</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.1454</v>
+        <v>-11.1536</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.2712</v>
+        <v>-11.2998</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.46379999999996</v>
+        <v>-21.49189999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.57409999999999</v>
+        <v>-19.38139999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.94089999999998</v>
+        <v>-19.83159999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.73340000000001</v>
+        <v>-13.2926</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.3287</v>
+        <v>-13.11340000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8002</v>
+        <v>-21.787</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.54679999999998</v>
+        <v>-21.56519999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.3442</v>
+        <v>-21.42600000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.6634</v>
+        <v>-12.8319</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.60820000000001</v>
+        <v>-12.90790000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
